--- a/data/am_tram5_name.xlsx
+++ b/data/am_tram5_name.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\UTNCE\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8BA310-4625-4B40-83D2-ABE0F60A9B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF09FDA-DAA3-4065-9123-288A18D844F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30960" yWindow="-210" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,9 +48,6 @@
     <t>Van Boshuizenstraat</t>
   </si>
   <si>
-    <t>A.J. Ernststraat</t>
-  </si>
-  <si>
     <t>Parnassusweg</t>
   </si>
   <si>
@@ -94,6 +91,9 @@
   </si>
   <si>
     <t>Gerrit van der Veenstraat</t>
+  </si>
+  <si>
+    <t>A. J. Ernststraat</t>
   </si>
 </sst>
 </file>
@@ -414,7 +414,7 @@
   <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,82 +456,82 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
